--- a/biology/Médecine/Rotoluve/Rotoluve.xlsx
+++ b/biology/Médecine/Rotoluve/Rotoluve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rotoluve est destiné à nettoyer et/ou désinfecter les pneus et les roues de véhicules circulant sur les routes ou chemins (vélo, moto, voiture, tracteur,camion) et qui seraient susceptibles d’avoir été contaminés par des organismes pathogènes et de les transporter. C'est un dispositif qui complète les mesures-barrières destinées à bloquer à la source une épidémie.
@@ -513,7 +525,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C’est un espace permanent ou provisoire construit de manière à y faire passer les roues des véhicules dans un bain de désinfectant adapté aux pathogènes qu’on veut détruire, et complété ou renouvelé tant que de besoin.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En désinfectant au moins les pneus qui sont les plus en contact direct avec le sol, le rotoluve diminue le risque de dispersion d’organismes pathogènes par les engins de transport.
 Un traitement complémentaire par pulvérisation (sur le côté des roues, le châssis ou les garde-boues, voire de tout le véhicule peut compléter et terminer cette phase de désinfection.
@@ -579,13 +595,49 @@
           <t>Types et conception</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les modèles provisoires sont souvent constitués d’une épaisse bâche plastique étanche posée sur un lit de sable garni de paille dans un creux ou sur un lit de paille sur une surface roulante (route, parking, surface terrassée...) préalablement nettoyée (pour que des gravillons ou particules ne percent pas la bâche). Il est recommandé de veiller à ce que le désinfectant ou décontaminant perdu (par débordement à la suite d'une pluie, d'une fuite, ou par ruissellement à partir des pneus) ne parte pas directement dans l’égout ou le milieu naturel. La taille et l’épaisseur de la bâche sont choisis selon qu’on vise à traiter des camions, des tracteurs ou des voitures ou vélos. La bâche mesure généralement au moins 8 mètres de long et est repliée en 2 ou 3 épaisseurs en travers du chemin, les bords étant relevés par des bottes de paille, sacs de sable ou de terre, ou un muret de terre, madriers, parpaings ou de sable pour retenir le désinfectant, lequel peut baigner dans un substrat de paille hachée, sciure, copeaux, sacs de jute qui protégeront également la bâche en jouant un rôle d'éponge limitant l'évaporation du désinfectant... sur une épaisseur de 5 à 10 cm.Le rotoluve doit être plus long que la circonférence de la plus grande des roues des camions ou tracteurs à traiter (environ 3,5 m pour un camion, et 6 m pour les tracteurs, la largeur devant permettre le passage des véhicules sans que ceux-ci n'endommagent la bâche relevée sur les côtés (environ 5 m) la profondeur doit être d'au moins 15 à 20 cm.
 Une simple bâche ne résiste pas longtemps aux passages répétés d'engins lourds. Pour un usage durable ou pour décontaminer des engins type semi-remorques ou tracteurs ou engins militaires lourdement chargés, il existe des rotoluves en acier qui peuvent être loués (dans la limite de leur disponibilité).  Ils sont notamment destinés au nettoyage de la terre des chantiers en sortie de chantier de travaux publics en ville, mais leur nombre est limité.
-Des structures permanentes de béton armé pourraient être construites préventivement dans les lieux stratégiques (ports, abattoirs, aéroports, élevages industriels, etc.)
-Liens internes
-Grippe aviaire, Risque pandémique lié à la grippe aviaire
+Des structures permanentes de béton armé pourraient être construites préventivement dans les lieux stratégiques (ports, abattoirs, aéroports, élevages industriels, etc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rotoluve</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rotoluve</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types et conception</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Grippe aviaire, Risque pandémique lié à la grippe aviaire
 Maladie de Newcastle
 Pédiluve
 Hygiène
